--- a/src/analysis_examples/circadb/results_jtk/cosinor_10410465_bc018507_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10410465_bc018507_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3381298411726459, 0.4217981452810219]</t>
+          <t>[0.3389640991220186, 0.4209638873316492]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>7.993605777301127e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>7.993605777301127e-15</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9685791164220783</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48986644207189983, 0.5335759031991165]</t>
+          <t>[0.48987547246787116, 0.5335668728031453]</t>
         </is>
       </c>
       <c r="U2" t="n">
